--- a/Code/Results/Cases/Case_3_98/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_98/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.591633958649879</v>
+        <v>1.412870246130808</v>
       </c>
       <c r="C2">
-        <v>0.5186026041599234</v>
+        <v>0.1682565082276142</v>
       </c>
       <c r="D2">
-        <v>0.03272727003958309</v>
+        <v>0.09808484263608008</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.098452997638475</v>
+        <v>2.069221938363427</v>
       </c>
       <c r="G2">
-        <v>0.8943667864675149</v>
+        <v>1.42772883144643</v>
       </c>
       <c r="H2">
-        <v>0.6117230437490946</v>
+        <v>1.317309718956423</v>
       </c>
       <c r="I2">
-        <v>0.5636763748299174</v>
+        <v>1.252771063368982</v>
       </c>
       <c r="J2">
-        <v>0.07874239089870549</v>
+        <v>0.1774909734679824</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2176764759011931</v>
+        <v>0.3717099617930302</v>
       </c>
       <c r="M2">
-        <v>0.4602503657689283</v>
+        <v>0.356788751973113</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.252518947878627</v>
+        <v>1.317231774682284</v>
       </c>
       <c r="C3">
-        <v>0.4555071098327801</v>
+        <v>0.1484401673830291</v>
       </c>
       <c r="D3">
-        <v>0.03151271094709429</v>
+        <v>0.09788900112230436</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.060949735237912</v>
+        <v>2.076900983398119</v>
       </c>
       <c r="G3">
-        <v>0.8520016448978538</v>
+        <v>1.430531225437946</v>
       </c>
       <c r="H3">
-        <v>0.6013567014989576</v>
+        <v>1.324945147423506</v>
       </c>
       <c r="I3">
-        <v>0.5676389485127302</v>
+        <v>1.264583940846315</v>
       </c>
       <c r="J3">
-        <v>0.08048891952614312</v>
+        <v>0.178386177027777</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2003872397713948</v>
+        <v>0.3688572064345621</v>
       </c>
       <c r="M3">
-        <v>0.4029117482057529</v>
+        <v>0.3416913777316068</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.045369394745251</v>
+        <v>1.258864914646665</v>
       </c>
       <c r="C4">
-        <v>0.4168757156120364</v>
+        <v>0.1362136664180582</v>
       </c>
       <c r="D4">
-        <v>0.03077999648874652</v>
+        <v>0.09777671807255039</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.04040960065123</v>
+        <v>2.08282140055762</v>
       </c>
       <c r="G4">
-        <v>0.8283446558028942</v>
+        <v>1.433253289970764</v>
       </c>
       <c r="H4">
-        <v>0.596326095390765</v>
+        <v>1.330322260059575</v>
       </c>
       <c r="I4">
-        <v>0.5715578207326537</v>
+        <v>1.272562690787449</v>
       </c>
       <c r="J4">
-        <v>0.08160746086308013</v>
+        <v>0.1789678888291739</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1899802011039569</v>
+        <v>0.3672382464765747</v>
       </c>
       <c r="M4">
-        <v>0.3679627190038985</v>
+        <v>0.3325395810519183</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.961175995188057</v>
+        <v>1.235170557281094</v>
       </c>
       <c r="C5">
-        <v>0.4011510452035623</v>
+        <v>0.131216468386441</v>
       </c>
       <c r="D5">
-        <v>0.03048436684751188</v>
+        <v>0.09773297431126693</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.032630154361534</v>
+        <v>2.085536886252015</v>
       </c>
       <c r="G5">
-        <v>0.8192596368435545</v>
+        <v>1.434613879506969</v>
       </c>
       <c r="H5">
-        <v>0.5945947860650591</v>
+        <v>1.332686629165636</v>
       </c>
       <c r="I5">
-        <v>0.5735107488792366</v>
+        <v>1.275996357143416</v>
       </c>
       <c r="J5">
-        <v>0.08207486282836385</v>
+        <v>0.1792130208201241</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1857881961987289</v>
+        <v>0.3666119576425899</v>
       </c>
       <c r="M5">
-        <v>0.3537768380995772</v>
+        <v>0.3288400518330832</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.947207825698285</v>
+        <v>1.23124163591774</v>
       </c>
       <c r="C6">
-        <v>0.3985407910869867</v>
+        <v>0.1303857961307813</v>
       </c>
       <c r="D6">
-        <v>0.03043544761779415</v>
+        <v>0.09772583253457867</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.031373096188887</v>
+        <v>2.086006075663171</v>
       </c>
       <c r="G6">
-        <v>0.8177835844688133</v>
+        <v>1.434854969808129</v>
       </c>
       <c r="H6">
-        <v>0.5943260794109335</v>
+        <v>1.333089686356075</v>
       </c>
       <c r="I6">
-        <v>0.5738560330208493</v>
+        <v>1.27657751720967</v>
       </c>
       <c r="J6">
-        <v>0.08215317383146292</v>
+        <v>0.1792542133751196</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1850949748632686</v>
+        <v>0.3665099860360925</v>
       </c>
       <c r="M6">
-        <v>0.3514244353887506</v>
+        <v>0.3282275602957938</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.044233095079449</v>
+        <v>1.258544995761213</v>
       </c>
       <c r="C7">
-        <v>0.4166635867859725</v>
+        <v>0.1361463322675718</v>
       </c>
       <c r="D7">
-        <v>0.03077599795009256</v>
+        <v>0.09777611996615931</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.040302336257547</v>
+        <v>2.082856796590313</v>
       </c>
       <c r="G7">
-        <v>0.8282199304123026</v>
+        <v>1.433270622388406</v>
       </c>
       <c r="H7">
-        <v>0.5963014774345226</v>
+        <v>1.330353445800299</v>
       </c>
       <c r="I7">
-        <v>0.5715827399428441</v>
+        <v>1.27260826070998</v>
       </c>
       <c r="J7">
-        <v>0.08161371751908764</v>
+        <v>0.1789711620244638</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1899234725512997</v>
+        <v>0.3672296645576907</v>
       </c>
       <c r="M7">
-        <v>0.3677711868238589</v>
+        <v>0.332489566544389</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.47445598819894</v>
+        <v>1.379820994680188</v>
       </c>
       <c r="C8">
-        <v>0.4968185476132305</v>
+        <v>0.1614361619494957</v>
       </c>
       <c r="D8">
-        <v>0.03230558412096229</v>
+        <v>0.09801566915283999</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.084984227164782</v>
+        <v>2.071619325341942</v>
       </c>
       <c r="G8">
-        <v>0.8792475104313411</v>
+        <v>1.428486967548267</v>
       </c>
       <c r="H8">
-        <v>0.6078613200966743</v>
+        <v>1.319799375187998</v>
       </c>
       <c r="I8">
-        <v>0.564723318403253</v>
+        <v>1.256693428338153</v>
       </c>
       <c r="J8">
-        <v>0.07933499887869644</v>
+        <v>0.1777929988566065</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2116696584012487</v>
+        <v>0.3706988574959666</v>
       </c>
       <c r="M8">
-        <v>0.4404213209889463</v>
+        <v>0.3515587997321745</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.328926603003879</v>
+        <v>1.620424345781544</v>
       </c>
       <c r="C9">
-        <v>0.6553466969673707</v>
+        <v>0.2105585844390134</v>
       </c>
       <c r="D9">
-        <v>0.03542464303776072</v>
+        <v>0.09854824272261453</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.194013286383438</v>
+        <v>2.059160684754644</v>
       </c>
       <c r="G9">
-        <v>0.9997896800047812</v>
+        <v>1.427075150102027</v>
       </c>
       <c r="H9">
-        <v>0.6419339330456069</v>
+        <v>1.304573764590742</v>
       </c>
       <c r="I9">
-        <v>0.5639148692986211</v>
+        <v>1.231250782770047</v>
       </c>
       <c r="J9">
-        <v>0.07523373701002178</v>
+        <v>0.1757360589786892</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2561416110272461</v>
+        <v>0.3785508749060824</v>
       </c>
       <c r="M9">
-        <v>0.5853495728806024</v>
+        <v>0.3898829260926036</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.966864197846178</v>
+        <v>1.798857782007588</v>
       </c>
       <c r="C10">
-        <v>0.7733678147225476</v>
+        <v>0.2463637394680518</v>
       </c>
       <c r="D10">
-        <v>0.03781453482595154</v>
+        <v>0.09897739402687833</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.28968852005643</v>
+        <v>2.055867417785137</v>
       </c>
       <c r="G10">
-        <v>1.103529396066989</v>
+        <v>1.430930851593473</v>
       </c>
       <c r="H10">
-        <v>0.6751486106617222</v>
+        <v>1.296730072474048</v>
       </c>
       <c r="I10">
-        <v>0.5723092383321884</v>
+        <v>1.216086113619951</v>
       </c>
       <c r="J10">
-        <v>0.07244589182889705</v>
+        <v>0.1743780816938028</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.290191664664718</v>
+        <v>0.384955515285526</v>
       </c>
       <c r="M10">
-        <v>0.6939743783827481</v>
+        <v>0.4185998269213371</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.260164378137119</v>
+        <v>1.880387075911585</v>
       </c>
       <c r="C11">
-        <v>0.827576350236626</v>
+        <v>0.2625912050398256</v>
       </c>
       <c r="D11">
-        <v>0.03892964761611495</v>
+        <v>0.09918076761935879</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.337211563476913</v>
+        <v>2.055646438715343</v>
       </c>
       <c r="G11">
-        <v>1.154678849137611</v>
+        <v>1.433755054189149</v>
       </c>
       <c r="H11">
-        <v>0.6923367843539552</v>
+        <v>1.293889267515652</v>
       </c>
       <c r="I11">
-        <v>0.5783930676921898</v>
+        <v>1.209956185627753</v>
       </c>
       <c r="J11">
-        <v>0.07122693603533392</v>
+        <v>0.17379331812743</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3060450552189025</v>
+        <v>0.3880064994858401</v>
       </c>
       <c r="M11">
-        <v>0.7440154197544615</v>
+        <v>0.4317844118928704</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.371755108407342</v>
+        <v>1.911310853353086</v>
       </c>
       <c r="C12">
-        <v>0.8481950678225587</v>
+        <v>0.2687274055700186</v>
       </c>
       <c r="D12">
-        <v>0.039356550614567</v>
+        <v>0.09925894419768255</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.355839170058644</v>
+        <v>2.055746756628508</v>
       </c>
       <c r="G12">
-        <v>1.174677683490927</v>
+        <v>1.434978981998825</v>
       </c>
       <c r="H12">
-        <v>0.6991721924336218</v>
+        <v>1.292918244972753</v>
       </c>
       <c r="I12">
-        <v>0.58105148317307</v>
+        <v>1.207745691851365</v>
       </c>
       <c r="J12">
-        <v>0.07077247186214919</v>
+        <v>0.1735766072120875</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3121064792393042</v>
+        <v>0.389181519763909</v>
       </c>
       <c r="M12">
-        <v>0.7630692538459911</v>
+        <v>0.4367943282525175</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.347697396166211</v>
+        <v>1.904648642198026</v>
       </c>
       <c r="C13">
-        <v>0.8437501280252775</v>
+        <v>0.2674062572997968</v>
       </c>
       <c r="D13">
-        <v>0.0392643926890841</v>
+        <v>0.09924205586441204</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.351798332677163</v>
+        <v>2.055716962491474</v>
       </c>
       <c r="G13">
-        <v>1.170341548104034</v>
+        <v>1.43470850840967</v>
       </c>
       <c r="H13">
-        <v>0.6976850691604284</v>
+        <v>1.293122711981709</v>
       </c>
       <c r="I13">
-        <v>0.5804626863425995</v>
+        <v>1.208216830263488</v>
       </c>
       <c r="J13">
-        <v>0.07087003105754697</v>
+        <v>0.1736230698501249</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.310798362083716</v>
+        <v>0.3889275843407205</v>
       </c>
       <c r="M13">
-        <v>0.7589607869793937</v>
+        <v>0.4357145915694787</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.269334029392326</v>
+        <v>1.882930190489162</v>
       </c>
       <c r="C14">
-        <v>0.8292707390295675</v>
+        <v>0.2630962106003665</v>
       </c>
       <c r="D14">
-        <v>0.03896467251026436</v>
+        <v>0.09918717598493743</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.33873106622282</v>
+        <v>2.055651002352846</v>
       </c>
       <c r="G14">
-        <v>1.156311179244739</v>
+        <v>1.433852648540025</v>
       </c>
       <c r="H14">
-        <v>0.6928924234915144</v>
+        <v>1.293807281186048</v>
       </c>
       <c r="I14">
-        <v>0.5786044954691434</v>
+        <v>1.209772105351576</v>
       </c>
       <c r="J14">
-        <v>0.0711894038608083</v>
+        <v>0.1737753945643945</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3065425331090239</v>
+        <v>0.3881027752362058</v>
       </c>
       <c r="M14">
-        <v>0.7455808121335892</v>
+        <v>0.432196237243204</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.221404947663757</v>
+        <v>1.869633539654046</v>
       </c>
       <c r="C15">
-        <v>0.8204140740220396</v>
+        <v>0.2604550353494517</v>
       </c>
       <c r="D15">
-        <v>0.03878170830707361</v>
+        <v>0.09915371173382326</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.330811014677977</v>
+        <v>2.05563457210846</v>
       </c>
       <c r="G15">
-        <v>1.147801064874187</v>
+        <v>1.433348542196214</v>
       </c>
       <c r="H15">
-        <v>0.6900001920921284</v>
+        <v>1.294240242509233</v>
       </c>
       <c r="I15">
-        <v>0.5775133819041613</v>
+        <v>1.210739190387088</v>
       </c>
       <c r="J15">
-        <v>0.07138595863196429</v>
+        <v>0.1738693128559703</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3039434600516131</v>
+        <v>0.3876001159223392</v>
       </c>
       <c r="M15">
-        <v>0.7373992285952582</v>
+        <v>0.4300433772039653</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.947765261836253</v>
+        <v>1.793536770402682</v>
       </c>
       <c r="C16">
-        <v>0.7698369853968643</v>
+        <v>0.2453020115416109</v>
       </c>
       <c r="D16">
-        <v>0.03774227279318865</v>
+        <v>0.09896426635085831</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.286667976777167</v>
+        <v>2.055907588258179</v>
       </c>
       <c r="G16">
-        <v>1.100271346234095</v>
+        <v>1.430767867392532</v>
       </c>
       <c r="H16">
-        <v>0.6740694615181155</v>
+        <v>1.296930373394389</v>
       </c>
       <c r="I16">
-        <v>0.5719596352783753</v>
+        <v>1.21650220631053</v>
       </c>
       <c r="J16">
-        <v>0.07252654830436356</v>
+        <v>0.17441695968202</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2891634111652337</v>
+        <v>0.3847588849768471</v>
       </c>
       <c r="M16">
-        <v>0.6907178814140877</v>
+        <v>0.4177406019580445</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.780743635067608</v>
+        <v>1.746944946221504</v>
       </c>
       <c r="C17">
-        <v>0.7389539212875889</v>
+        <v>0.2359905660701429</v>
       </c>
       <c r="D17">
-        <v>0.03711218420057349</v>
+        <v>0.09885012907035318</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.260650711339267</v>
+        <v>2.056402428093321</v>
       </c>
       <c r="G17">
-        <v>1.07216840981576</v>
+        <v>1.429459220231777</v>
       </c>
       <c r="H17">
-        <v>0.6648477881498849</v>
+        <v>1.298767067104578</v>
       </c>
       <c r="I17">
-        <v>0.5691524853840306</v>
+        <v>1.220234660003669</v>
       </c>
       <c r="J17">
-        <v>0.07323890832839908</v>
+        <v>0.1747613597920346</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2801934632345535</v>
+        <v>0.3830510290931954</v>
       </c>
       <c r="M17">
-        <v>0.6622506940933732</v>
+        <v>0.4102241148562058</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.684963792940039</v>
+        <v>1.720180426844706</v>
       </c>
       <c r="C18">
-        <v>0.7212386894280485</v>
+        <v>0.2306291816673536</v>
       </c>
       <c r="D18">
-        <v>0.03675236257205938</v>
+        <v>0.09878524799164623</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.246059084903564</v>
+        <v>2.056807236997301</v>
       </c>
       <c r="G18">
-        <v>1.056372925390718</v>
+        <v>1.428807221702428</v>
       </c>
       <c r="H18">
-        <v>0.6597375737029694</v>
+        <v>1.299891936055175</v>
       </c>
       <c r="I18">
-        <v>0.5677492200228258</v>
+        <v>1.22245379321344</v>
       </c>
       <c r="J18">
-        <v>0.07365327151039303</v>
+        <v>0.174962555540521</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2750680588484329</v>
+        <v>0.3820816613085753</v>
       </c>
       <c r="M18">
-        <v>0.6459352184541842</v>
+        <v>0.4059122437203655</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.652581326149289</v>
+        <v>1.711124274511235</v>
       </c>
       <c r="C19">
-        <v>0.7152483696251863</v>
+        <v>0.2288129350737904</v>
       </c>
       <c r="D19">
-        <v>0.03663096016948231</v>
+        <v>0.09876341248709863</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.241181004519831</v>
+        <v>2.056964930588421</v>
       </c>
       <c r="G19">
-        <v>1.051086395546264</v>
+        <v>1.428603744395645</v>
       </c>
       <c r="H19">
-        <v>0.6580398334388065</v>
+        <v>1.300284549707399</v>
       </c>
       <c r="I19">
-        <v>0.5673095578649523</v>
+        <v>1.223217567512926</v>
       </c>
       <c r="J19">
-        <v>0.0737943620757715</v>
+        <v>0.175031210934355</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2733383352368008</v>
+        <v>0.381755676261804</v>
       </c>
       <c r="M19">
-        <v>0.6404206454135846</v>
+        <v>0.4044542851753832</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.798493165942773</v>
+        <v>1.751901229410407</v>
       </c>
       <c r="C20">
-        <v>0.7422364065649845</v>
+        <v>0.2369823746191457</v>
       </c>
       <c r="D20">
-        <v>0.0371789860606242</v>
+        <v>0.0988621997919239</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.263381315802178</v>
+        <v>2.056337309811113</v>
       </c>
       <c r="G20">
-        <v>1.0751214478843</v>
+        <v>1.429588101702791</v>
       </c>
       <c r="H20">
-        <v>0.6658091958843642</v>
+        <v>1.298564462457222</v>
       </c>
       <c r="I20">
-        <v>0.5694292383567046</v>
+        <v>1.219829846731848</v>
       </c>
       <c r="J20">
-        <v>0.07316259661857671</v>
+        <v>0.174724376486795</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.281144783706992</v>
+        <v>0.3832314940926693</v>
       </c>
       <c r="M20">
-        <v>0.6652749631762305</v>
+        <v>0.4110230780738462</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.29233635593107</v>
+        <v>1.889308067962304</v>
       </c>
       <c r="C21">
-        <v>0.8335210753700721</v>
+        <v>0.2643624150292965</v>
       </c>
       <c r="D21">
-        <v>0.03905257653836358</v>
+        <v>0.09920326402889756</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.342551619815509</v>
+        <v>2.055665380030959</v>
       </c>
       <c r="G21">
-        <v>1.160414639596297</v>
+        <v>1.434099838715255</v>
       </c>
       <c r="H21">
-        <v>0.6942910414840071</v>
+        <v>1.29360336319408</v>
       </c>
       <c r="I21">
-        <v>0.5791404239807889</v>
+        <v>1.209312274832584</v>
       </c>
       <c r="J21">
-        <v>0.07109540248845114</v>
+        <v>0.1737305249670182</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3077909481280585</v>
+        <v>0.3883445083066732</v>
       </c>
       <c r="M21">
-        <v>0.7495078824417476</v>
+        <v>0.4332291981031986</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.618189574239636</v>
+        <v>1.979404612979465</v>
       </c>
       <c r="C22">
-        <v>0.8937207880158553</v>
+        <v>0.2822055873604654</v>
       </c>
       <c r="D22">
-        <v>0.04030442904934617</v>
+        <v>0.09943294666161862</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.398005897778916</v>
+        <v>2.05629887701231</v>
       </c>
       <c r="G22">
-        <v>1.219861040280705</v>
+        <v>1.437949114865233</v>
       </c>
       <c r="H22">
-        <v>0.7148241632425254</v>
+        <v>1.290971502255701</v>
       </c>
       <c r="I22">
-        <v>0.5875695199133872</v>
+        <v>1.203084247155125</v>
       </c>
       <c r="J22">
-        <v>0.06978594319630638</v>
+        <v>0.1731085265586678</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3255474116322006</v>
+        <v>0.3918008201733301</v>
       </c>
       <c r="M22">
-        <v>0.805174938240917</v>
+        <v>0.4478423383117089</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.443964120941189</v>
+        <v>1.931291960576118</v>
       </c>
       <c r="C23">
-        <v>0.8615358404377673</v>
+        <v>0.2726870710365858</v>
       </c>
       <c r="D23">
-        <v>0.03963356511183491</v>
+        <v>0.09930974336367271</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.368049205003416</v>
+        <v>2.055862506319158</v>
       </c>
       <c r="G23">
-        <v>1.187773094180528</v>
+        <v>1.435812091915807</v>
       </c>
       <c r="H23">
-        <v>0.7036798449122728</v>
+        <v>1.292320268417768</v>
       </c>
       <c r="I23">
-        <v>0.582869970185655</v>
+        <v>1.206349084850167</v>
       </c>
       <c r="J23">
-        <v>0.07048100611072172</v>
+        <v>0.1734379844224119</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3160371451233033</v>
+        <v>0.3899456597087863</v>
       </c>
       <c r="M23">
-        <v>0.7754029718506246</v>
+        <v>0.440033936970579</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.79046785163672</v>
+        <v>1.749660425967932</v>
       </c>
       <c r="C24">
-        <v>0.7407522720514521</v>
+        <v>0.2365340032345102</v>
       </c>
       <c r="D24">
-        <v>0.0371487774327548</v>
+        <v>0.09885674032025449</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.262145673578956</v>
+        <v>2.056366375015784</v>
       </c>
       <c r="G24">
-        <v>1.073785258610712</v>
+        <v>1.429529521809982</v>
       </c>
       <c r="H24">
-        <v>0.6653739491916895</v>
+        <v>1.298655845308218</v>
       </c>
       <c r="I24">
-        <v>0.5693034645080601</v>
+        <v>1.220012634510525</v>
       </c>
       <c r="J24">
-        <v>0.07319708213937659</v>
+        <v>0.1747410866836532</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2807145939165707</v>
+        <v>0.3831498669199505</v>
       </c>
       <c r="M24">
-        <v>0.6639075342946583</v>
+        <v>0.4106618373282203</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.096262571624663</v>
+        <v>1.555040519400279</v>
       </c>
       <c r="C25">
-        <v>0.6122451317071977</v>
+        <v>0.197319883378384</v>
       </c>
       <c r="D25">
-        <v>0.03456560452938007</v>
+        <v>0.09839748733345743</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.161978282496406</v>
+        <v>2.061503509873077</v>
       </c>
       <c r="G25">
-        <v>0.9647228286623744</v>
+        <v>1.426600350576052</v>
       </c>
       <c r="H25">
-        <v>0.6313747359650108</v>
+        <v>1.308106242302273</v>
       </c>
       <c r="I25">
-        <v>0.5626541202477782</v>
+        <v>1.237515055009183</v>
       </c>
       <c r="J25">
-        <v>0.07630377941809385</v>
+        <v>0.1762655132143429</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2438893072269792</v>
+        <v>0.3763147859855991</v>
       </c>
       <c r="M25">
-        <v>0.5458157587765911</v>
+        <v>0.3794164101658382</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_98/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_98/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.412870246130808</v>
+        <v>2.59163395865005</v>
       </c>
       <c r="C2">
-        <v>0.1682565082276142</v>
+        <v>0.518602604159895</v>
       </c>
       <c r="D2">
-        <v>0.09808484263608008</v>
+        <v>0.03272727003963283</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.069221938363427</v>
+        <v>1.098452997638503</v>
       </c>
       <c r="G2">
-        <v>1.42772883144643</v>
+        <v>0.8943667864675149</v>
       </c>
       <c r="H2">
-        <v>1.317309718956423</v>
+        <v>0.6117230437490662</v>
       </c>
       <c r="I2">
-        <v>1.252771063368982</v>
+        <v>0.5636763748299174</v>
       </c>
       <c r="J2">
-        <v>0.1774909734679824</v>
+        <v>0.07874239089873569</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3717099617930302</v>
+        <v>0.2176764759011576</v>
       </c>
       <c r="M2">
-        <v>0.356788751973113</v>
+        <v>0.4602503657689496</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.317231774682284</v>
+        <v>2.252518947878798</v>
       </c>
       <c r="C3">
-        <v>0.1484401673830291</v>
+        <v>0.4555071098330927</v>
       </c>
       <c r="D3">
-        <v>0.09788900112230436</v>
+        <v>0.03151271094714403</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.076900983398119</v>
+        <v>1.060949735237926</v>
       </c>
       <c r="G3">
-        <v>1.430531225437946</v>
+        <v>0.8520016448978822</v>
       </c>
       <c r="H3">
-        <v>1.324945147423506</v>
+        <v>0.6013567014989576</v>
       </c>
       <c r="I3">
-        <v>1.264583940846315</v>
+        <v>0.5676389485127373</v>
       </c>
       <c r="J3">
-        <v>0.178386177027777</v>
+        <v>0.0804889195261751</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3688572064345621</v>
+        <v>0.2003872397713877</v>
       </c>
       <c r="M3">
-        <v>0.3416913777316068</v>
+        <v>0.4029117482057742</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.258864914646665</v>
+        <v>2.04536939474508</v>
       </c>
       <c r="C4">
-        <v>0.1362136664180582</v>
+        <v>0.416875715611809</v>
       </c>
       <c r="D4">
-        <v>0.09777671807255039</v>
+        <v>0.03077999648879981</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.08282140055762</v>
+        <v>1.04040960065123</v>
       </c>
       <c r="G4">
-        <v>1.433253289970764</v>
+        <v>0.8283446558029226</v>
       </c>
       <c r="H4">
-        <v>1.330322260059575</v>
+        <v>0.5963260953908787</v>
       </c>
       <c r="I4">
-        <v>1.272562690787449</v>
+        <v>0.5715578207326644</v>
       </c>
       <c r="J4">
-        <v>0.1789678888291739</v>
+        <v>0.08160746086304549</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3672382464765747</v>
+        <v>0.1899802011039711</v>
       </c>
       <c r="M4">
-        <v>0.3325395810519183</v>
+        <v>0.3679627190038985</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.235170557281094</v>
+        <v>1.961175995188171</v>
       </c>
       <c r="C5">
-        <v>0.131216468386441</v>
+        <v>0.4011510452036759</v>
       </c>
       <c r="D5">
-        <v>0.09773297431126693</v>
+        <v>0.03048436684762379</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.085536886252015</v>
+        <v>1.032630154361492</v>
       </c>
       <c r="G5">
-        <v>1.434613879506969</v>
+        <v>0.8192596368435687</v>
       </c>
       <c r="H5">
-        <v>1.332686629165636</v>
+        <v>0.5945947860650591</v>
       </c>
       <c r="I5">
-        <v>1.275996357143416</v>
+        <v>0.5735107488792366</v>
       </c>
       <c r="J5">
-        <v>0.1792130208201241</v>
+        <v>0.08207486282823062</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3666119576425899</v>
+        <v>0.1857881961987999</v>
       </c>
       <c r="M5">
-        <v>0.3288400518330832</v>
+        <v>0.353776838099563</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.23124163591774</v>
+        <v>1.947207825698285</v>
       </c>
       <c r="C6">
-        <v>0.1303857961307813</v>
+        <v>0.3985407910869867</v>
       </c>
       <c r="D6">
-        <v>0.09772583253457867</v>
+        <v>0.03043544761784744</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.086006075663171</v>
+        <v>1.031373096188922</v>
       </c>
       <c r="G6">
-        <v>1.434854969808129</v>
+        <v>0.8177835844688559</v>
       </c>
       <c r="H6">
-        <v>1.333089686356075</v>
+        <v>0.5943260794109335</v>
       </c>
       <c r="I6">
-        <v>1.27657751720967</v>
+        <v>0.5738560330208635</v>
       </c>
       <c r="J6">
-        <v>0.1792542133751196</v>
+        <v>0.08215317383144072</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3665099860360925</v>
+        <v>0.1850949748632971</v>
       </c>
       <c r="M6">
-        <v>0.3282275602957938</v>
+        <v>0.3514244353887435</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.258544995761213</v>
+        <v>2.044233095079449</v>
       </c>
       <c r="C7">
-        <v>0.1361463322675718</v>
+        <v>0.4166635867862283</v>
       </c>
       <c r="D7">
-        <v>0.09777611996615931</v>
+        <v>0.03077599795021158</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.082856796590313</v>
+        <v>1.04030233625754</v>
       </c>
       <c r="G7">
-        <v>1.433270622388406</v>
+        <v>0.828219930412331</v>
       </c>
       <c r="H7">
-        <v>1.330353445800299</v>
+        <v>0.5963014774345226</v>
       </c>
       <c r="I7">
-        <v>1.27260826070998</v>
+        <v>0.571582739942837</v>
       </c>
       <c r="J7">
-        <v>0.1789711620244638</v>
+        <v>0.08161371751906543</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3672296645576907</v>
+        <v>0.18992347255125</v>
       </c>
       <c r="M7">
-        <v>0.332489566544389</v>
+        <v>0.367771186823866</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.379820994680188</v>
+        <v>2.474455988198883</v>
       </c>
       <c r="C8">
-        <v>0.1614361619494957</v>
+        <v>0.4968185476132305</v>
       </c>
       <c r="D8">
-        <v>0.09801566915283999</v>
+        <v>0.03230558412094808</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.071619325341942</v>
+        <v>1.084984227164782</v>
       </c>
       <c r="G8">
-        <v>1.428486967548267</v>
+        <v>0.8792475104313411</v>
       </c>
       <c r="H8">
-        <v>1.319799375187998</v>
+        <v>0.6078613200966743</v>
       </c>
       <c r="I8">
-        <v>1.256693428338153</v>
+        <v>0.564723318403253</v>
       </c>
       <c r="J8">
-        <v>0.1777929988566065</v>
+        <v>0.07933499887869111</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3706988574959666</v>
+        <v>0.2116696584013624</v>
       </c>
       <c r="M8">
-        <v>0.3515587997321745</v>
+        <v>0.4404213209889392</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.620424345781544</v>
+        <v>3.328926603003879</v>
       </c>
       <c r="C9">
-        <v>0.2105585844390134</v>
+        <v>0.6553466969673138</v>
       </c>
       <c r="D9">
-        <v>0.09854824272261453</v>
+        <v>0.03542464303759729</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.059160684754644</v>
+        <v>1.194013286383438</v>
       </c>
       <c r="G9">
-        <v>1.427075150102027</v>
+        <v>0.999789680004838</v>
       </c>
       <c r="H9">
-        <v>1.304573764590742</v>
+        <v>0.6419339330454932</v>
       </c>
       <c r="I9">
-        <v>1.231250782770047</v>
+        <v>0.5639148692986353</v>
       </c>
       <c r="J9">
-        <v>0.1757360589786892</v>
+        <v>0.07523373701000935</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3785508749060824</v>
+        <v>0.2561416110271892</v>
       </c>
       <c r="M9">
-        <v>0.3898829260926036</v>
+        <v>0.5853495728806024</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.798857782007588</v>
+        <v>3.966864197846235</v>
       </c>
       <c r="C10">
-        <v>0.2463637394680518</v>
+        <v>0.7733678147230876</v>
       </c>
       <c r="D10">
-        <v>0.09897739402687833</v>
+        <v>0.03781453482602615</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.055867417785137</v>
+        <v>1.289688520056416</v>
       </c>
       <c r="G10">
-        <v>1.430930851593473</v>
+        <v>1.103529396066932</v>
       </c>
       <c r="H10">
-        <v>1.296730072474048</v>
+        <v>0.6751486106617222</v>
       </c>
       <c r="I10">
-        <v>1.216086113619951</v>
+        <v>0.5723092383321884</v>
       </c>
       <c r="J10">
-        <v>0.1743780816938028</v>
+        <v>0.07244589182891481</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.384955515285526</v>
+        <v>0.2901916646647322</v>
       </c>
       <c r="M10">
-        <v>0.4185998269213371</v>
+        <v>0.6939743783827339</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.880387075911585</v>
+        <v>4.260164378137119</v>
       </c>
       <c r="C11">
-        <v>0.2625912050398256</v>
+        <v>0.8275763502366544</v>
       </c>
       <c r="D11">
-        <v>0.09918076761935879</v>
+        <v>0.03892964761602258</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.055646438715343</v>
+        <v>1.337211563476927</v>
       </c>
       <c r="G11">
-        <v>1.433755054189149</v>
+        <v>1.154678849137667</v>
       </c>
       <c r="H11">
-        <v>1.293889267515652</v>
+        <v>0.6923367843539552</v>
       </c>
       <c r="I11">
-        <v>1.209956185627753</v>
+        <v>0.5783930676922111</v>
       </c>
       <c r="J11">
-        <v>0.17379331812743</v>
+        <v>0.07122693603531793</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3880064994858401</v>
+        <v>0.3060450552190019</v>
       </c>
       <c r="M11">
-        <v>0.4317844118928704</v>
+        <v>0.7440154197544615</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.911310853353086</v>
+        <v>4.371755108407342</v>
       </c>
       <c r="C12">
-        <v>0.2687274055700186</v>
+        <v>0.8481950678224734</v>
       </c>
       <c r="D12">
-        <v>0.09925894419768255</v>
+        <v>0.03935655061436805</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.055746756628508</v>
+        <v>1.35583917005863</v>
       </c>
       <c r="G12">
-        <v>1.434978981998825</v>
+        <v>1.174677683490899</v>
       </c>
       <c r="H12">
-        <v>1.292918244972753</v>
+        <v>0.6991721924336218</v>
       </c>
       <c r="I12">
-        <v>1.207745691851365</v>
+        <v>0.5810514831730842</v>
       </c>
       <c r="J12">
-        <v>0.1735766072120875</v>
+        <v>0.07077247186223445</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.389181519763909</v>
+        <v>0.3121064792393184</v>
       </c>
       <c r="M12">
-        <v>0.4367943282525175</v>
+        <v>0.7630692538460053</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.904648642198026</v>
+        <v>4.347697396166211</v>
       </c>
       <c r="C13">
-        <v>0.2674062572997968</v>
+        <v>0.8437501280254196</v>
       </c>
       <c r="D13">
-        <v>0.09924205586441204</v>
+        <v>0.03926439268906634</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.055716962491474</v>
+        <v>1.351798332677163</v>
       </c>
       <c r="G13">
-        <v>1.43470850840967</v>
+        <v>1.170341548103977</v>
       </c>
       <c r="H13">
-        <v>1.293122711981709</v>
+        <v>0.6976850691604568</v>
       </c>
       <c r="I13">
-        <v>1.208216830263488</v>
+        <v>0.5804626863425995</v>
       </c>
       <c r="J13">
-        <v>0.1736230698501249</v>
+        <v>0.07087003105753986</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3889275843407205</v>
+        <v>0.3107983620836023</v>
       </c>
       <c r="M13">
-        <v>0.4357145915694787</v>
+        <v>0.7589607869794079</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.882930190489162</v>
+        <v>4.269334029392439</v>
       </c>
       <c r="C14">
-        <v>0.2630962106003665</v>
+        <v>0.8292707390296812</v>
       </c>
       <c r="D14">
-        <v>0.09918717598493743</v>
+        <v>0.03896467251002633</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.055651002352846</v>
+        <v>1.338731066222778</v>
       </c>
       <c r="G14">
-        <v>1.433852648540025</v>
+        <v>1.156311179244625</v>
       </c>
       <c r="H14">
-        <v>1.293807281186048</v>
+        <v>0.6928924234914007</v>
       </c>
       <c r="I14">
-        <v>1.209772105351576</v>
+        <v>0.5786044954691576</v>
       </c>
       <c r="J14">
-        <v>0.1737753945643945</v>
+        <v>0.07118940386084915</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3881027752362058</v>
+        <v>0.3065425331089386</v>
       </c>
       <c r="M14">
-        <v>0.432196237243204</v>
+        <v>0.7455808121335892</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.869633539654046</v>
+        <v>4.221404947663814</v>
       </c>
       <c r="C15">
-        <v>0.2604550353494517</v>
+        <v>0.8204140740220396</v>
       </c>
       <c r="D15">
-        <v>0.09915371173382326</v>
+        <v>0.03878170830700611</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.05563457210846</v>
+        <v>1.330811014677963</v>
       </c>
       <c r="G15">
-        <v>1.433348542196214</v>
+        <v>1.147801064874145</v>
       </c>
       <c r="H15">
-        <v>1.294240242509233</v>
+        <v>0.6900001920921</v>
       </c>
       <c r="I15">
-        <v>1.210739190387088</v>
+        <v>0.5775133819041471</v>
       </c>
       <c r="J15">
-        <v>0.1738693128559703</v>
+        <v>0.07138595863198027</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3876001159223392</v>
+        <v>0.3039434600516273</v>
       </c>
       <c r="M15">
-        <v>0.4300433772039653</v>
+        <v>0.737399228595244</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.793536770402682</v>
+        <v>3.947765261836082</v>
       </c>
       <c r="C16">
-        <v>0.2453020115416109</v>
+        <v>0.7698369853965232</v>
       </c>
       <c r="D16">
-        <v>0.09896426635085831</v>
+        <v>0.03774227279329878</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.055907588258179</v>
+        <v>1.286667976777181</v>
       </c>
       <c r="G16">
-        <v>1.430767867392532</v>
+        <v>1.100271346234052</v>
       </c>
       <c r="H16">
-        <v>1.296930373394389</v>
+        <v>0.6740694615181155</v>
       </c>
       <c r="I16">
-        <v>1.21650220631053</v>
+        <v>0.5719596352783896</v>
       </c>
       <c r="J16">
-        <v>0.17441695968202</v>
+        <v>0.07252654830435468</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3847588849768471</v>
+        <v>0.2891634111651484</v>
       </c>
       <c r="M16">
-        <v>0.4177406019580445</v>
+        <v>0.6907178814140735</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.746944946221504</v>
+        <v>3.780743635067495</v>
       </c>
       <c r="C17">
-        <v>0.2359905660701429</v>
+        <v>0.738953921287731</v>
       </c>
       <c r="D17">
-        <v>0.09885012907035318</v>
+        <v>0.03711218420049534</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.056402428093321</v>
+        <v>1.260650711339267</v>
       </c>
       <c r="G17">
-        <v>1.429459220231777</v>
+        <v>1.072168409815788</v>
       </c>
       <c r="H17">
-        <v>1.298767067104578</v>
+        <v>0.6648477881497428</v>
       </c>
       <c r="I17">
-        <v>1.220234660003669</v>
+        <v>0.5691524853840235</v>
       </c>
       <c r="J17">
-        <v>0.1747613597920346</v>
+        <v>0.07323890832855007</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3830510290931954</v>
+        <v>0.2801934632344825</v>
       </c>
       <c r="M17">
-        <v>0.4102241148562058</v>
+        <v>0.6622506940933732</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.720180426844706</v>
+        <v>3.684963792940096</v>
       </c>
       <c r="C18">
-        <v>0.2306291816673536</v>
+        <v>0.7212386894281053</v>
       </c>
       <c r="D18">
-        <v>0.09878524799164623</v>
+        <v>0.03675236257216596</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.056807236997301</v>
+        <v>1.246059084903521</v>
       </c>
       <c r="G18">
-        <v>1.428807221702428</v>
+        <v>1.056372925390718</v>
       </c>
       <c r="H18">
-        <v>1.299891936055175</v>
+        <v>0.6597375737029694</v>
       </c>
       <c r="I18">
-        <v>1.22245379321344</v>
+        <v>0.5677492200228116</v>
       </c>
       <c r="J18">
-        <v>0.174962555540521</v>
+        <v>0.07365327151040901</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3820816613085753</v>
+        <v>0.2750680588484755</v>
       </c>
       <c r="M18">
-        <v>0.4059122437203655</v>
+        <v>0.6459352184541771</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.711124274511235</v>
+        <v>3.652581326149516</v>
       </c>
       <c r="C19">
-        <v>0.2288129350737904</v>
+        <v>0.7152483696256411</v>
       </c>
       <c r="D19">
-        <v>0.09876341248709863</v>
+        <v>0.03663096016955691</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.056964930588421</v>
+        <v>1.241181004519845</v>
       </c>
       <c r="G19">
-        <v>1.428603744395645</v>
+        <v>1.051086395546236</v>
       </c>
       <c r="H19">
-        <v>1.300284549707399</v>
+        <v>0.6580398334388065</v>
       </c>
       <c r="I19">
-        <v>1.223217567512926</v>
+        <v>0.5673095578649381</v>
       </c>
       <c r="J19">
-        <v>0.175031210934355</v>
+        <v>0.07379436207569157</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.381755676261804</v>
+        <v>0.2733383352367866</v>
       </c>
       <c r="M19">
-        <v>0.4044542851753832</v>
+        <v>0.6404206454135846</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.751901229410407</v>
+        <v>3.798493165942944</v>
       </c>
       <c r="C20">
-        <v>0.2369823746191457</v>
+        <v>0.7422364065652118</v>
       </c>
       <c r="D20">
-        <v>0.0988621997919239</v>
+        <v>0.0371789860606242</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.056337309811113</v>
+        <v>1.263381315802178</v>
       </c>
       <c r="G20">
-        <v>1.429588101702791</v>
+        <v>1.075121447884314</v>
       </c>
       <c r="H20">
-        <v>1.298564462457222</v>
+        <v>0.665809195884222</v>
       </c>
       <c r="I20">
-        <v>1.219829846731848</v>
+        <v>0.5694292383567046</v>
       </c>
       <c r="J20">
-        <v>0.174724376486795</v>
+        <v>0.07316259661856073</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3832314940926693</v>
+        <v>0.2811447837069352</v>
       </c>
       <c r="M20">
-        <v>0.4110230780738462</v>
+        <v>0.6652749631762234</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.889308067962304</v>
+        <v>4.292336355931241</v>
       </c>
       <c r="C21">
-        <v>0.2643624150292965</v>
+        <v>0.8335210753699016</v>
       </c>
       <c r="D21">
-        <v>0.09920326402889756</v>
+        <v>0.03905257653823213</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.055665380030959</v>
+        <v>1.342551619815509</v>
       </c>
       <c r="G21">
-        <v>1.434099838715255</v>
+        <v>1.160414639596326</v>
       </c>
       <c r="H21">
-        <v>1.29360336319408</v>
+        <v>0.6942910414840071</v>
       </c>
       <c r="I21">
-        <v>1.209312274832584</v>
+        <v>0.5791404239807747</v>
       </c>
       <c r="J21">
-        <v>0.1737305249670182</v>
+        <v>0.0710954024884618</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3883445083066732</v>
+        <v>0.3077909481280869</v>
       </c>
       <c r="M21">
-        <v>0.4332291981031986</v>
+        <v>0.7495078824417405</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.979404612979465</v>
+        <v>4.618189574239636</v>
       </c>
       <c r="C22">
-        <v>0.2822055873604654</v>
+        <v>0.893720788015969</v>
       </c>
       <c r="D22">
-        <v>0.09943294666161862</v>
+        <v>0.04030442904942433</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.05629887701231</v>
+        <v>1.39800589777893</v>
       </c>
       <c r="G22">
-        <v>1.437949114865233</v>
+        <v>1.219861040280733</v>
       </c>
       <c r="H22">
-        <v>1.290971502255701</v>
+        <v>0.7148241632424117</v>
       </c>
       <c r="I22">
-        <v>1.203084247155125</v>
+        <v>0.5875695199133943</v>
       </c>
       <c r="J22">
-        <v>0.1731085265586678</v>
+        <v>0.06978594319634368</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3918008201733301</v>
+        <v>0.3255474116322574</v>
       </c>
       <c r="M22">
-        <v>0.4478423383117089</v>
+        <v>0.8051749382409099</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.931291960576118</v>
+        <v>4.443964120941075</v>
       </c>
       <c r="C23">
-        <v>0.2726870710365858</v>
+        <v>0.8615358404379094</v>
       </c>
       <c r="D23">
-        <v>0.09930974336367271</v>
+        <v>0.03963356511182425</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.055862506319158</v>
+        <v>1.368049205003402</v>
       </c>
       <c r="G23">
-        <v>1.435812091915807</v>
+        <v>1.1877730941805</v>
       </c>
       <c r="H23">
-        <v>1.292320268417768</v>
+        <v>0.7036798449122443</v>
       </c>
       <c r="I23">
-        <v>1.206349084850167</v>
+        <v>0.5828699701856692</v>
       </c>
       <c r="J23">
-        <v>0.1734379844224119</v>
+        <v>0.07048100611069863</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3899456597087863</v>
+        <v>0.3160371451232891</v>
       </c>
       <c r="M23">
-        <v>0.440033936970579</v>
+        <v>0.7754029718506246</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.749660425967932</v>
+        <v>3.79046785163672</v>
       </c>
       <c r="C24">
-        <v>0.2365340032345102</v>
+        <v>0.7407522720517079</v>
       </c>
       <c r="D24">
-        <v>0.09885674032025449</v>
+        <v>0.0371487774328223</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.056366375015784</v>
+        <v>1.262145673578928</v>
       </c>
       <c r="G24">
-        <v>1.429529521809982</v>
+        <v>1.073785258610741</v>
       </c>
       <c r="H24">
-        <v>1.298655845308218</v>
+        <v>0.6653739491917889</v>
       </c>
       <c r="I24">
-        <v>1.220012634510525</v>
+        <v>0.5693034645080601</v>
       </c>
       <c r="J24">
-        <v>0.1747410866836532</v>
+        <v>0.07319708213932152</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3831498669199505</v>
+        <v>0.2807145939165707</v>
       </c>
       <c r="M24">
-        <v>0.4106618373282203</v>
+        <v>0.6639075342946583</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.555040519400279</v>
+        <v>3.096262571624493</v>
       </c>
       <c r="C25">
-        <v>0.197319883378384</v>
+        <v>0.6122451317066293</v>
       </c>
       <c r="D25">
-        <v>0.09839748733345743</v>
+        <v>0.03456560452924862</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.061503509873077</v>
+        <v>1.161978282496406</v>
       </c>
       <c r="G25">
-        <v>1.426600350576052</v>
+        <v>0.9647228286623744</v>
       </c>
       <c r="H25">
-        <v>1.308106242302273</v>
+        <v>0.6313747359648971</v>
       </c>
       <c r="I25">
-        <v>1.237515055009183</v>
+        <v>0.5626541202477924</v>
       </c>
       <c r="J25">
-        <v>0.1762655132143429</v>
+        <v>0.07630377941802813</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3763147859855991</v>
+        <v>0.243889307226965</v>
       </c>
       <c r="M25">
-        <v>0.3794164101658382</v>
+        <v>0.5458157587765839</v>
       </c>
       <c r="N25">
         <v>0</v>
